--- a/JieLongMod_6/Excel/R人物列表接力第一棒.xlsx
+++ b/JieLongMod_6/Excel/R人物列表接力第一棒.xlsx
@@ -448,7 +448,7 @@
     <t>金钱,3000,15000</t>
   </si>
   <si>
-    <t>喜欢的礼物:要送礼物给我？
+    <t>喜欢的礼物:徒儿的心意我已领受，这份善意，不如转化为精进修行的契机，可好？
 hello:世间之恶…由我来诛灭。|巽宫为吉，杜门为生，这里阴煞之气汇聚，又是一处是非之地，若想消灾避祸，可去东南方位。|山门清净，但你的心念已至。俗礼就免了，直说来意吧。|晨修方罢，正好得空。是修行上遇到了困惑，还是有了新的见闻？|今日气清，宜修行，亦宜静心。你来得正好。
 refuse_recruit_0:时机未到，强求无益。你且静心，待云雾散开，再议不迟。
 recruit_msg:既然你诚心相邀，那便是缘分。此间烦忧，我辈自当尽力。
@@ -457,7 +457,25 @@
 be_attack_enemy:雕虫小技，也敢来犯？</t>
   </si>
   <si>
-    <t>Like:
+    <r>
+      <t>Like:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Desc:云岿山第十三代门主，也是被市长梅弗劳尔亲自认可的虚狩级调查员。她曾经是一名孤儿，自小与姐姐一同流浪。后来两人被当时的云岿山门主收留，成为弟子学习术法。在此期间，仪玄展现出了极高的天赋。无论何种术法，她总能以极快的速度掌握，不仅能够融会贯通，还能创造出属于自己的特殊术法。而「青溟鸟」则是她和姐姐合作研发的特殊术法之一，在各种困难和险境中，辅助她消灭敌人，铲除邪祟。在成为门主之后，她接受了梅弗劳尔市长的邀请，以合作的方式加入了空洞调查协会，成为了特遣调查员。
 IsNoExpel:1
 IsNoBetray:1
@@ -465,6 +483,7 @@
 Voice:NpcVoice.yixuan
 fight_skills:直拳|重拳|心清如水
 fight_dgskill:刺拳,1</t>
+    </r>
   </si>
   <si>
     <t>PLACE,随便观,0.8
@@ -494,12 +513,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喜欢的礼物:要送礼物给我？
+      <t>喜欢的礼物:嘿嘿，我最喜欢又威风又可爱的小玩意儿了！还有，要是有什么新奇的零嘴，记得也分我一份呀！
 hello:云岿山上有猛虎，仗义行侠好威风！|修炼术法着实不易，师姐助你一爪之力！|我不是橘猫希人……当然也不是狸花的！</t>
     </r>
     <r>
@@ -525,7 +539,25 @@
     </r>
   </si>
   <si>
-    <t>Like:可爱|小饰品|玩具
+    <r>
+      <t>Like:可爱|小饰品|玩具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|食物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Desc:橘福福，新艾利都少见的虎希人，个子和年纪小小却是随便观的大师姐。看似软糯的外表下，藏着一颗行侠仗义的虎胆之心。身为最早拜入仪玄门下的弟子之一，橘福福以“超可怕大老虎”自称，她身材虽小，却肩负大师姐的责任，在师弟妹面前既是指引明灯，也是保护伞
 IsNoExpel:1
 IsNoBetray:1
@@ -533,6 +565,7 @@
 Voice:NpcVoice.jufufu
 fight_skills:直拳|重拳|心清如水
 fight_dgskill:刺拳,1</t>
+    </r>
   </si>
   <si>
     <t>PLACE,随便观,0.5
@@ -559,7 +592,7 @@
     <t>character:潘引壶</t>
   </si>
   <si>
-    <t>喜欢的礼物:要送礼物给我？
+    <t>喜欢的礼物:修炼如烹鲜，重在火候与食材。若见到什么稀罕的调料或炊具，于我便是助益修行了。
 hello:草木尚知食尘饮露，修炼术法断不可饿着肚子呀。|吃了没？灶上还热着馒头。
 refuse_recruit_0:恕难从命，这锅汤火候正到关键处，离不得人。
 recruit_msg:既然是为苍生奔波，我这点手艺能帮上忙就好。|需要带点干粮路上吃吗？
@@ -568,7 +601,25 @@
 be_attack_enemy:哎呦……别点把我的宝贝铁锅打坏了。</t>
   </si>
   <si>
-    <t>Like:工艺|装饰
+    <r>
+      <t>Like:工艺|装饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|食材|茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Desc:云岿山门下弟子，随便观的首席大厨兼财务管理人，使得一手好拳法，精通点穴术。在成为云岿山门下弟子之前他曾是一名盗洞客，因一次偶然遇到了仪玄，在被暴打及点化后选择拜入云岿山门下，通过修炼术法净化自己日渐暴戾的心性。拜他所赐，随便观的成员每天都能吃到美味而实惠的饭菜。作为掌勺大厨，他对于菜品的口味要求严格，且高度重视同伴们的评价。
 IsNoExpel:1
 IsNoBetray:1
@@ -576,6 +627,7 @@
 Voice:NpcVoice.panyinhu
 fight_skills:直拳|重拳|心清如水
 fight_dgskill:刺拳,1</t>
+    </r>
   </si>
   <si>
     <t>PLACE,随便观,0.2
@@ -599,7 +651,7 @@
     <t>character:叶释渊</t>
   </si>
   <si>
-    <t>喜欢的礼物:要送礼物给我？
+    <t>喜欢的礼物:心法秘籍，文房旧物，凡能助人明理悟道之物，我皆有心研习。实用的物件，总是好的。
 hello:山间清风，檐上新月，皆是今日缘法。请坐。|心静则宁。可是修行上遇到了困惑？
 refuse_recruit_0:此时恐有不便，藏书需人整理。
 refuse_recruit_1:此事牵涉颇广，还需从长计议。
@@ -609,7 +661,25 @@
 be_attack_enemy:势道尚可，然心浮气躁，破绽已生。|得罪了！</t>
   </si>
   <si>
-    <t>Like:文学|故事
+    <r>
+      <t>Like:文学|故事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|秘籍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Desc:云岿山门下弟子，总以沉稳冷静的姿态示人。他跟随师父仪玄在澄辉坪的随便观驻扎，与师姐橘福福、师弟潘引壶一同修行。然而这份平静之下，隐藏着不为人知的过往与复杂内心。
 IsNoExpel:1
 IsNoBetray:1
@@ -617,6 +687,7 @@
 Voice:NpcVoice.yeshiyuan
 fight_skills:直拳|重拳|心清如水
 fight_dgskill:刺拳,1</t>
+    </r>
   </si>
   <si>
     <t>PLACE,随便观,0.1
@@ -2319,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="T3" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/JieLongMod_6/Excel/R人物列表接力第一棒.xlsx
+++ b/JieLongMod_6/Excel/R人物列表接力第一棒.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AD$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AD$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -436,7 +436,7 @@
     <t>s_臂力成长,6|s_身法成长,7|s_根骨成长,5|s_精神成长,8|magic_talent,3</t>
   </si>
   <si>
-    <t>雁金拳法|T战技|T冥想者|T破法者</t>
+    <t>雁金拳法,T战技,T冥想者,T破法者</t>
   </si>
   <si>
     <t>红莲拳套|秘宝雪月白衣</t>
@@ -458,6 +458,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Like:</t>
     </r>
     <r>
@@ -503,7 +508,7 @@
     <t>s_臂力成长,8|s_身法成长,8|s_根骨成长,6|s_精神成长,3|magic_talent,1</t>
   </si>
   <si>
-    <t>斗技战士|T战技|T火之巫术</t>
+    <t>斗技战士,T战技,T火之巫术</t>
   </si>
   <si>
     <t>花拳|华美长衣</t>
@@ -513,6 +518,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>喜欢的礼物:嘿嘿，我最喜欢又威风又可爱的小玩意儿了！还有，要是有什么新奇的零嘴，记得也分我一份呀！
 hello:云岿山上有猛虎，仗义行侠好威风！|修炼术法着实不易，师姐助你一爪之力！|我不是橘猫希人……当然也不是狸花的！</t>
     </r>
@@ -540,6 +550,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Like:可爱|小饰品|玩具</t>
     </r>
     <r>
@@ -583,7 +598,7 @@
     <t>s_臂力成长,6|s_身法成长,7|s_根骨成长,5|s_精神成长,5|magic_talent,2</t>
   </si>
   <si>
-    <t>肌肉斗士|T体术|行商</t>
+    <t>肌肉斗士,T体术,行商</t>
   </si>
   <si>
     <t>粗布拳套|亚麻长衣</t>
@@ -602,6 +617,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Like:工艺|装饰</t>
     </r>
     <r>
@@ -645,7 +665,7 @@
     <t>s_臂力成长,3|s_身法成长,6|s_根骨成长,5|s_精神成长,7|magic_talent,3</t>
   </si>
   <si>
-    <t>T散兵|T欺诈师|T冥想者</t>
+    <t>T散兵,T欺诈师,T冥想者</t>
   </si>
   <si>
     <t>character:叶释渊</t>
@@ -662,6 +682,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Like:文学|故事</t>
     </r>
     <r>
@@ -694,6 +719,125 @@
 ROLE,仪玄,0.1
 ROLE,橘福福,0.1
 ROLE,潘引壶,0.1</t>
+  </si>
+  <si>
+    <t>铃</t>
+  </si>
+  <si>
+    <t>3D#铃_道观服</t>
+  </si>
+  <si>
+    <t>s_臂力成长,2|s_身法成长,4|s_根骨成长,5|s_精神成长,10|magic_talent,3</t>
+  </si>
+  <si>
+    <t>T冥想者</t>
+  </si>
+  <si>
+    <t>character:铃_道观服</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:哇，今日份的礼物是什么？
+hello:哥哥！有趣的委托在等着‘法厄同’吗？
+refuse_recruit_0:不要！这次说什么也不行！我以‘法厄同’另一半的身份否决这次行动！
+recruit_msg:当然啦！和哥哥一起，什么样的空洞都不怕！|好耶！又能和哥哥一起行动了！
+enemy_hello:看招看招！铃的专属表演，现在开始~
+be_attack:威胁等级判定为‘中’，注意对方的配合模式。
+be_attack_enemy:充满攻击性，不必留手了。</t>
+  </si>
+  <si>
+    <t>Like:文学|故事
+Desc:表面上是新艾利都六分街街尾一家名为“Random Play”的录像店的店主，暗地里的另一个身份是业界颇负盛名的传奇绳匠，与妹妹铃合称为“​​法厄同​​”。作为哥哥与绳匠，他是“法厄同”的理性半身，沉稳可靠，是团队的战术大脑，经营录像店作为行动据点，始终将守护妹妹铃视为最高职责。
+IsNoExpel:1
+IsNoBetray:1
+Nature:kind=6,severe=4,honest=4,cunning=6,calm=4,anger=6,strong=6,weak=4
+Voice:NpcVoice.yeshiyuan
+fight_skills:直拳|重拳|心清如水
+fight_dgskill:刺拳,1</t>
+  </si>
+  <si>
+    <t>哲</t>
+  </si>
+  <si>
+    <t>3D#哲_道观服</t>
+  </si>
+  <si>
+    <t>s_臂力成长,3|s_身法成长,3|s_根骨成长,5|s_精神成长,10|magic_talent,3</t>
+  </si>
+  <si>
+    <t>character:哲_道观服</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:居然能够想到给我送礼物？不会是又有什么难办事吧？
+hello:铃，早上好。我煮了咖啡，你的那份加了双倍糖和牛奶。|今天绳网上的委托，要一起看看吗？|你昨晚又熬夜打游戏了吧？黑眼圈都快掉地上了。
+recruit_msg:嗯，这个委托的报酬确实能改善店里这个月的营收。
+enemy_hello:裁定为目标清除。突击！
+be_attack:威胁等级判定为‘中’，注意对方的配合模式。
+be_attack_enemy:充满攻击性，不必留手了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Like:故事|可爱|玩具
+Desc:表面上是新艾利都六分街街尾一家名为“Random Play”的录像店的店主，暗地里的另一个身份是业界颇负盛名的传奇绳匠，与哥哥哲合称为“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法厄同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”。作为妹妹与绳匠，她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是“法厄同”的灵动半身，她活泼跳脱，是团队的直觉担当，擅长在空洞中探寻蹊径，虽依赖哥哥，却也拥有独当一面的能力。
+IsNoExpel:1
+IsNoBetray:1
+Nature:kind=7,severe=3,honest=7,cunning=3,calm=8,anger=2,strong=7,weak=3
+Voice:NpcVoice.yeshiyuan
+fight_skills:直拳|重拳|心清如水
+fight_dgskill:刺拳,1</t>
+    </r>
   </si>
   <si>
     <t>第一棒仪玄</t>
@@ -1157,14 +1301,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1926,22 +2070,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,7 +2098,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,16 +2110,16 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,10 +2532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2830,234 +2974,266 @@
       </c>
       <c r="AE5" s="14"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="25.95" customHeight="1" spans="1:20">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" ht="154" spans="1:31">
+      <c r="A6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" s="14"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="154" spans="1:31">
+      <c r="A7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE7" s="14"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="25.95" customHeight="1" spans="1:20">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="C8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="M6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="J8" s="16"/>
+      <c r="M8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="3">
         <v>-1</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T8" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="195" customHeight="1" spans="1:28">
-      <c r="A7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    <row r="9" s="4" customFormat="1" ht="195" customHeight="1" spans="1:28">
+      <c r="A9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>1</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H9" s="15">
         <v>10</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I9" s="17">
         <v>6</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" ht="90" spans="1:31">
-      <c r="A8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>0</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="19">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19">
-        <v>0</v>
-      </c>
-      <c r="V8" s="26">
-        <v>0</v>
-      </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-    </row>
-    <row r="9" ht="90" spans="1:31">
-      <c r="A9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="M9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>0</v>
-      </c>
-      <c r="R9" s="26" t="s">
+      <c r="N9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="19">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <v>0</v>
-      </c>
-      <c r="V9" s="26">
-        <v>0</v>
-      </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
+      <c r="O9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" ht="90" spans="1:31">
       <c r="A10" s="18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -3066,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="26"/>
@@ -3080,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="S10" s="26"/>
       <c r="T10" s="19">
@@ -3104,19 +3280,19 @@
     </row>
     <row r="11" ht="90" spans="1:31">
       <c r="A11" s="18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -3125,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="26"/>
@@ -3139,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="19">
@@ -3163,13 +3339,13 @@
     </row>
     <row r="12" ht="90" spans="1:31">
       <c r="A12" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -3184,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="26"/>
@@ -3198,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="S12" s="26"/>
       <c r="T12" s="19">
@@ -3222,13 +3398,13 @@
     </row>
     <row r="13" ht="90" spans="1:31">
       <c r="A13" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -3243,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="26"/>
@@ -3257,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S13" s="26"/>
       <c r="T13" s="19">
@@ -3281,13 +3457,13 @@
     </row>
     <row r="14" ht="90" spans="1:31">
       <c r="A14" s="18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -3302,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="26"/>
@@ -3316,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="S14" s="26"/>
       <c r="T14" s="19">
@@ -3338,121 +3514,133 @@
       <c r="AD14" s="36"/>
       <c r="AE14" s="36"/>
     </row>
-    <row r="15" s="5" customFormat="1" ht="70" spans="1:28">
-      <c r="A15" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21">
-        <v>3</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32" t="s">
+    <row r="15" ht="90" spans="1:31">
+      <c r="A15" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="20">
-        <v>0</v>
-      </c>
-      <c r="U15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="29"/>
+      <c r="B15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="19">
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0</v>
+      </c>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
     </row>
-    <row r="16" s="5" customFormat="1" ht="70" spans="1:28">
-      <c r="A16" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21">
-        <v>6</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="T16" s="20">
-        <v>0</v>
-      </c>
-      <c r="U16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="29"/>
+    <row r="16" ht="90" spans="1:31">
+      <c r="A16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="19">
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <v>0</v>
+      </c>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="70" spans="1:28">
       <c r="A17" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
@@ -3463,22 +3651,22 @@
         <v>1</v>
       </c>
       <c r="H17" s="21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
         <v>1</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P17" s="29">
         <v>0</v>
@@ -3487,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="T17" s="20">
         <v>0</v>
@@ -3499,13 +3687,13 @@
     </row>
     <row r="18" s="5" customFormat="1" ht="70" spans="1:28">
       <c r="A18" s="20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20">
@@ -3516,22 +3704,22 @@
         <v>1</v>
       </c>
       <c r="H18" s="21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I18" s="21">
         <v>1</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P18" s="29">
         <v>0</v>
@@ -3540,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="T18" s="20">
         <v>0</v>
@@ -3552,13 +3740,13 @@
     </row>
     <row r="19" s="5" customFormat="1" ht="70" spans="1:28">
       <c r="A19" s="20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20">
@@ -3569,23 +3757,23 @@
         <v>1</v>
       </c>
       <c r="H19" s="21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I19" s="21">
         <v>1</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M19" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="O19" s="30" t="s">
-        <v>112</v>
-      </c>
       <c r="P19" s="29">
         <v>0</v>
       </c>
@@ -3593,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="T19" s="20">
         <v>0</v>
@@ -3603,12 +3791,118 @@
       </c>
       <c r="AB19" s="29"/>
     </row>
+    <row r="20" s="5" customFormat="1" ht="70" spans="1:28">
+      <c r="A20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21">
+        <v>12</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>0</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="T20" s="20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="29"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="70" spans="1:28">
+      <c r="A21" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21">
+        <v>15</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>0</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="T21" s="20">
+        <v>0</v>
+      </c>
+      <c r="U21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD19">
+  <autoFilter ref="A1:AD21">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A2 A3 A4 A5 A7:B7 A8:B8 A9:B9 A10:B10 A11:B11 A12:B12 A13:B13 A14:B14 A15:A19" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A2 A3 A4 A5 A6 A7 A9:B9 A10:B10 A11:B11 A12:B12 A13:B13 A14:B14 A15:B15 A16:B16 A17:A21" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
